--- a/Template01.xlsx
+++ b/Template01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d969b40b90c1de7f/Documents/GitHub/HtmlGenerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{40B97FBB-43FF-4426-BFB6-20367328BF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59D9B789-1FF6-4A10-B518-3B59F03F5C94}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{40B97FBB-43FF-4426-BFB6-20367328BF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC5DC5FA-AEEB-4281-8A3C-B7F60A7911B8}"/>
   <bookViews>
     <workbookView xWindow="2933" yWindow="2933" windowWidth="19200" windowHeight="10074" xr2:uid="{7A2CFEFC-3EA8-4D73-B5E7-059AC223CC60}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Title of the Table</t>
   </si>
@@ -60,13 +60,31 @@
     <t>Label3</t>
   </si>
   <si>
-    <t>_RB_</t>
-  </si>
-  <si>
-    <t>_TB_</t>
-  </si>
-  <si>
-    <t>_CK_</t>
+    <t>_RB_#Label1</t>
+  </si>
+  <si>
+    <t>_RB_#Label3</t>
+  </si>
+  <si>
+    <t>_TB_#Textbox1</t>
+  </si>
+  <si>
+    <t>_TB_#Textbox2</t>
+  </si>
+  <si>
+    <t>_TB_#Textbox3</t>
+  </si>
+  <si>
+    <t>_DDL_#DropDownList1</t>
+  </si>
+  <si>
+    <t>_DDL_#DropDownList2</t>
+  </si>
+  <si>
+    <t>_DDL_#DropDownList3</t>
+  </si>
+  <si>
+    <t>_RB_#Label2</t>
   </si>
 </sst>
 </file>
@@ -210,15 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -231,6 +240,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,40 +571,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B7CE6-3306-4566-9C10-540412615572}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="4" width="11.29296875" customWidth="1"/>
+    <col min="6" max="6" width="19.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
@@ -596,13 +615,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.5">
@@ -610,16 +629,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.5">
@@ -627,16 +646,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.5">
